--- a/计划/2024学习计划.xlsx
+++ b/计划/2024学习计划.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="28">
   <si>
     <t>早餐</t>
   </si>
@@ -105,44 +105,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>1音视频/10技术书/复习1/1习题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1音频/1视频/10技术书/1习题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20非技术书</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1音频/1视频/10技术书/1习题</t>
     </r>
   </si>
   <si>
@@ -917,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,9 +917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,8 +1352,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -1901,8 +1860,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -2409,8 +2368,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -2917,8 +2876,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -3319,8 +3278,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -3412,8 +3371,8 @@
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>8</v>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -3425,8 +3384,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -3439,7 +3398,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3471,17 +3430,17 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3491,23 +3450,23 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3518,8 +3477,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="15" t="s">
-        <v>18</v>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3529,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -3555,25 +3514,25 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3605,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3621,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3675,22 +3634,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -3991,8 +3950,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -4499,8 +4458,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -5007,8 +4966,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -5515,8 +5474,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -6024,8 +5983,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -6532,8 +6491,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -7040,8 +6999,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -7548,8 +7507,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">

--- a/计划/2024学习计划.xlsx
+++ b/计划/2024学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16640" activeTab="12"/>
+    <workbookView windowHeight="16640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="37">
   <si>
     <t>早餐</t>
   </si>
@@ -140,7 +140,25 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1音频/1视频/10技术书/1习题
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1音频/1视频/10技术书/1习题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -195,8 +213,57 @@
     <t>饼</t>
   </si>
   <si>
+    <t>饼夹菜</t>
+  </si>
+  <si>
+    <t>包子</t>
+  </si>
+  <si>
+    <t>荞麦面</t>
+  </si>
+  <si>
+    <t>披萨</t>
+  </si>
+  <si>
+    <t>面</t>
+  </si>
+  <si>
+    <t>火锅</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1音频/1视频/10技术书/1习题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20非技术书
+1音频/1视频/10技术书/1习题</t>
+    </r>
+  </si>
+  <si>
     <t>手臂
 跑步</t>
+  </si>
+  <si>
+    <t>未练</t>
+  </si>
+  <si>
+    <t>切片面包</t>
   </si>
 </sst>
 </file>
@@ -226,18 +293,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -405,13 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="6" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.5"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,19 +962,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +977,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,6 +1048,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00C00000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1247,7 +1322,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D43" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -1321,25 +1396,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1347,13 +1422,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -1431,25 +1506,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1529,25 +1604,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1571,19 +1646,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -1627,25 +1702,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1663,13 +1738,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -1701,13 +1776,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1720,28 +1795,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1829,25 +1904,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1855,13 +1930,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -1939,25 +2014,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2037,25 +2112,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2079,19 +2154,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -2135,25 +2210,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2171,13 +2246,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -2209,13 +2284,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2228,28 +2303,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2337,25 +2412,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2363,13 +2438,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -2447,25 +2522,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2545,25 +2620,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2587,19 +2662,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -2643,25 +2718,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2679,13 +2754,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -2717,13 +2792,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2736,28 +2811,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2845,25 +2920,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2871,13 +2946,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -2955,25 +3030,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3053,25 +3128,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3095,19 +3170,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -3151,25 +3226,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3187,13 +3262,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -3225,13 +3300,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3244,28 +3319,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3278,8 +3353,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E34" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -3354,38 +3429,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -3397,9 +3472,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
@@ -3429,19 +3502,11 @@
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
@@ -3449,25 +3514,13 @@
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="4" t="s">
@@ -3477,9 +3530,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -3487,25 +3538,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3513,27 +3564,13 @@
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
@@ -3563,12 +3600,8 @@
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3579,9 +3612,7 @@
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3593,9 +3624,7 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
-        <v>89.1</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3607,25 +3636,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3633,24 +3662,12 @@
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3661,19 +3678,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -3717,25 +3734,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3753,13 +3770,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -3791,13 +3808,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3810,28 +3827,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3844,8 +3861,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F34" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -3919,39 +3936,39 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -3963,7 +3980,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
@@ -3993,11 +4012,19 @@
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
@@ -4005,13 +4032,25 @@
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="4" t="s">
@@ -4021,7 +4060,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -4029,39 +4070,53 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>4</v>
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
@@ -4091,11 +4146,19 @@
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -4103,23 +4166,39 @@
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>89.1</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -4127,39 +4206,53 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>4</v>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
@@ -4169,19 +4262,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -4189,8 +4282,12 @@
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4201,8 +4298,12 @@
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4225,25 +4326,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4251,23 +4352,37 @@
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="B28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -4299,13 +4414,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4313,33 +4428,39 @@
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4352,8 +4473,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E29" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -4427,25 +4548,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4453,20 +4574,24 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4537,25 +4662,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4635,25 +4760,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4677,19 +4802,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -4733,25 +4858,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4769,13 +4894,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -4807,13 +4932,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4826,28 +4951,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4935,25 +5060,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4961,13 +5086,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -5045,25 +5170,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5143,25 +5268,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5185,19 +5310,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -5241,25 +5366,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5277,13 +5402,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -5315,13 +5440,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5334,28 +5459,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5443,25 +5568,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5469,13 +5594,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -5553,25 +5678,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5651,25 +5776,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5693,19 +5818,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -5749,25 +5874,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5785,13 +5910,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -5823,13 +5948,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5842,28 +5967,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5952,25 +6077,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5978,13 +6103,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -6062,25 +6187,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6160,25 +6285,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6202,19 +6327,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -6258,25 +6383,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6294,13 +6419,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -6332,13 +6457,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6351,28 +6476,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6460,25 +6585,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6486,13 +6611,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -6570,25 +6695,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6668,25 +6793,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6710,19 +6835,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -6766,25 +6891,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6802,13 +6927,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -6840,13 +6965,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6859,28 +6984,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6968,25 +7093,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6994,13 +7119,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -7078,25 +7203,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7176,25 +7301,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7218,19 +7343,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -7274,25 +7399,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7310,13 +7435,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -7348,13 +7473,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7367,28 +7492,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7476,25 +7601,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7502,13 +7627,13 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
@@ -7586,25 +7711,25 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7684,25 +7809,25 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7726,19 +7851,19 @@
       <c r="C23" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>25</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>27</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
@@ -7782,25 +7907,25 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7818,13 +7943,13 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>31</v>
       </c>
     </row>
@@ -7856,13 +7981,13 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7875,28 +8000,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="87" customHeight="1" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/计划/2024学习计划.xlsx
+++ b/计划/2024学习计划.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="36">
   <si>
     <t>早餐</t>
   </si>
@@ -229,31 +229,6 @@
   </si>
   <si>
     <t>火锅</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1音频/1视频/10技术书/1习题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-20非技术书
-1音频/1视频/10技术书/1习题</t>
-    </r>
   </si>
   <si>
     <t>手臂
@@ -3861,8 +3836,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -4225,7 +4200,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4233,7 +4208,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>21</v>
@@ -4251,7 +4226,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4286,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4327,25 +4302,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4353,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
@@ -4365,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>21</v>
@@ -4414,11 +4389,11 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
+      <c r="B34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>

--- a/计划/2024学习计划.xlsx
+++ b/计划/2024学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16640" activeTab="1"/>
+    <workbookView windowHeight="23840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="44">
   <si>
     <t>早餐</t>
   </si>
@@ -139,52 +139,6 @@
     <t>烤肉</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1音频/1视频/10技术书/1习题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20非技术书</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1音频/1视频/10技术书/1习题</t>
-    </r>
-  </si>
-  <si>
     <t>腿
 跑步</t>
   </si>
@@ -239,6 +193,58 @@
   </si>
   <si>
     <t>切片面包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1音频/1视频/10技术书/1习题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20非技术书
+1音频/1视频/10技术书/1习题</t>
+    </r>
+  </si>
+  <si>
+    <t>1音频/1视频/10技术书/1习题
+1音频/1视频/10技术书/1习题
+1音频/1视频/10技术书/1习题</t>
+  </si>
+  <si>
+    <t>牛肉包子</t>
+  </si>
+  <si>
+    <t>沙县</t>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>三明治</t>
+  </si>
+  <si>
+    <t>素饺子</t>
+  </si>
+  <si>
+    <t>红薯</t>
+  </si>
+  <si>
+    <t>肩
+跑步</t>
   </si>
 </sst>
 </file>
@@ -958,17 +964,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2312,8 +2318,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E34" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -2388,25 +2394,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -2498,25 +2504,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2596,25 +2602,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2694,25 +2700,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2768,13 +2774,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -3328,8 +3334,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E34" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -3404,25 +3410,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -3514,25 +3520,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3612,25 +3618,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3710,25 +3716,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3784,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -3836,7 +3842,7 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3911,25 +3917,25 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3955,7 +3961,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3997,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2"/>
@@ -4023,7 +4029,7 @@
       <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4035,7 +4041,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="2"/>
@@ -4045,52 +4051,52 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>18</v>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4122,17 +4128,17 @@
         <v>0</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4146,19 +4152,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4171,8 +4177,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="15" t="s">
-        <v>32</v>
+      <c r="F19" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4181,52 +4187,52 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>18</v>
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4257,11 +4263,11 @@
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4273,11 +4279,11 @@
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>25</v>
+      <c r="B25" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4301,52 +4307,52 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>18</v>
+      <c r="B27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -4389,28 +4395,28 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>4</v>
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>23</v>
+      <c r="B35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:2">
@@ -4448,8 +4454,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -4523,26 +4529,26 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -4562,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -4637,26 +4643,26 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4735,26 +4741,26 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4833,26 +4839,26 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>4</v>
+      <c r="B27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4907,14 +4913,14 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>4</v>
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -4960,8 +4966,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -5035,26 +5041,26 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -5145,26 +5151,26 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5243,26 +5249,26 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5341,26 +5347,26 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>4</v>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5415,14 +5421,14 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>4</v>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -5468,8 +5474,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -5544,25 +5550,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -5654,25 +5660,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5752,25 +5758,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5850,25 +5856,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5924,13 +5930,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -5978,7 +5984,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -6034,7 +6040,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -6052,26 +6060,26 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -6127,8 +6135,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -6138,9 +6150,13 @@
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6150,7 +6166,9 @@
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6162,35 +6180,41 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6260,26 +6284,26 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6358,8 +6382,8 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -6485,8 +6509,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C41" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -6529,7 +6553,9 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6561,25 +6587,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -6671,25 +6697,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6734,8 +6760,12 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -6744,10 +6774,18 @@
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -6756,10 +6794,18 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -6769,25 +6815,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6796,7 +6842,9 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -6867,25 +6915,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6941,13 +6989,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -6993,8 +7041,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -7501,8 +7549,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E33" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -7577,25 +7625,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -7687,25 +7735,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7785,25 +7833,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7883,25 +7931,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7957,13 +8005,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">

--- a/计划/2024学习计划.xlsx
+++ b/计划/2024学习计划.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="45">
   <si>
     <t>早餐</t>
   </si>
@@ -193,6 +193,52 @@
   </si>
   <si>
     <t>切片面包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1音频/1视频/10技术书/1习题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20非技术书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1音频/1视频/10技术书/1习题</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2394,25 +2440,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -2504,25 +2550,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2602,25 +2648,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2700,25 +2746,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2774,13 +2820,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -3410,25 +3456,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -3520,25 +3566,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3618,25 +3664,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3716,25 +3762,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3790,13 +3836,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -4966,8 +5012,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -5151,8 +5197,8 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>35</v>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
@@ -5250,25 +5296,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5348,25 +5394,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5422,13 +5468,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -5550,25 +5596,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -5660,25 +5706,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5758,25 +5804,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5856,25 +5902,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5930,13 +5976,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -6061,25 +6107,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -6136,7 +6182,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
@@ -6151,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
@@ -6181,25 +6227,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6210,7 +6256,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>23</v>
@@ -6285,25 +6331,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6383,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -6554,7 +6600,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6587,25 +6633,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -6697,25 +6743,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6761,10 +6807,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6778,13 +6824,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6795,16 +6841,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6815,25 +6861,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6843,7 +6889,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6915,25 +6961,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6989,13 +7035,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -7625,25 +7671,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -7735,25 +7781,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7833,25 +7879,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7931,25 +7977,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -8005,13 +8051,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
